--- a/digital_comms/model_overview.xlsx
+++ b/digital_comms/model_overview.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EJO31\Desktop\Github\digital_comms\digital_comms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oughtone\Desktop\GitHub\digital_comms\digital_comms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
   <si>
     <t>Scenario</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Scenario name</t>
+  </si>
+  <si>
+    <t>CB1</t>
+  </si>
+  <si>
+    <t>CB2</t>
   </si>
 </sst>
 </file>
@@ -357,18 +363,17 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -378,14 +383,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,10 +830,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -838,8 +844,8 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E19" t="s">
@@ -850,8 +856,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
@@ -862,8 +868,8 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E21" t="s">
@@ -874,74 +880,74 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -958,10 +964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,6 +988,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -989,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,6 +1051,150 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>2017</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="F2">
+        <f>D2/100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>2017</v>
+      </c>
+      <c r="D3">
+        <v>5000</v>
+      </c>
+      <c r="F3">
+        <f>D3/100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>2017</v>
+      </c>
+      <c r="D4">
+        <v>8000</v>
+      </c>
+      <c r="F4">
+        <f>D4/100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>2017</v>
+      </c>
+      <c r="D5">
+        <v>4000</v>
+      </c>
+      <c r="F5">
+        <f>D5/100</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6">
+        <v>12000</v>
+      </c>
+      <c r="F6">
+        <f>D6/100</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7">
+        <v>8000</v>
+      </c>
+      <c r="F7">
+        <f>D7/100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="F8">
+        <f>D8/100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9">
+        <v>6000</v>
+      </c>
+      <c r="F9">
+        <f>D9/100</f>
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1036,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,6 +1235,113 @@
       <c r="A2" t="s">
         <v>56</v>
       </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>2017</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>2017</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>2017</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>2017</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1077,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,6 +1378,40 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>450</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1115,7 +1422,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,6 +1529,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1314,14 +1624,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>